--- a/src/src_controller/documentation_images/FigureMovementTimes.xlsx
+++ b/src/src_controller/documentation_images/FigureMovementTimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodevmo\Desktop\AtomicChessOS\src\src_controller\documentation_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966CE234-22FF-425D-817C-7EDD3533E09D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956CF65-5968-485D-9C9D-9965F8C2F8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="1170" windowWidth="24930" windowHeight="16020" xr2:uid="{6E9E09F0-F1EE-4823-8639-E287A0BC0C5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>D5</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>TO_FIELD</t>
-  </si>
-  <si>
-    <t>MOVE TIME SECONDS</t>
   </si>
   <si>
     <t>A1</t>
@@ -76,6 +73,15 @@
   </si>
   <si>
     <t>MOVEMENT_TIME_PER_FIELD</t>
+  </si>
+  <si>
+    <t>SECONDS_PER_FIELD</t>
+  </si>
+  <si>
+    <t>MOVE TIME SECONDS_IMPLEMENTATION_A</t>
+  </si>
+  <si>
+    <t>MOVE TIME SECONDS_IMPLEMENTATION_B</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +137,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -143,12 +154,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -159,9 +171,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Akzent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Akzent6" xfId="3" builtinId="49"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -262,17 +277,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FIELD_BY_FIELD_DISTANCE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -376,27 +380,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$2:$E$7</c:f>
+              <c:f>Tabelle1!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>12.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>14.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>14.56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>11.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,6 +409,125 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-153D-4EE3-872A-96CAB0E1B8AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F6B1-4EF6-84E1-3A9C742D25BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -655,7 +778,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1671,24 +1794,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938252AC-D312-461B-B63A-878C42459ED2}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25" style="2" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="13.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1696,19 +1819,19 @@
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1725,16 +1848,16 @@
         <v>5</v>
       </c>
       <c r="F2" s="7">
-        <f>C2/D2</f>
+        <f t="shared" ref="F2:F7" si="0">C2/D2</f>
         <v>2.4539999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="6">
         <v>7.2</v>
@@ -1746,16 +1869,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="7">
-        <f>C3/D3</f>
+        <f t="shared" si="0"/>
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6">
         <v>7.6</v>
@@ -1767,16 +1890,16 @@
         <v>8</v>
       </c>
       <c r="F4" s="7">
-        <f>C4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6">
         <v>14.39</v>
@@ -1788,16 +1911,16 @@
         <v>15</v>
       </c>
       <c r="F5" s="7">
-        <f>C5/D5</f>
+        <f t="shared" si="0"/>
         <v>1.7987500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="6">
         <v>14.56</v>
@@ -1809,16 +1932,16 @@
         <v>15</v>
       </c>
       <c r="F6" s="2">
-        <f>C6/D6</f>
+        <f t="shared" si="0"/>
         <v>1.82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>11.65</v>
@@ -1830,8 +1953,180 @@
         <v>6</v>
       </c>
       <c r="F7" s="7">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>3.8833333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="7">
+        <f>SUM(F2:F7)</f>
+        <v>18.106083333333334</v>
+      </c>
+      <c r="G8" s="7">
+        <f>F8/6</f>
+        <v>3.0176805555555557</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>7.06</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" ref="F30:F35" si="1">C30/D30</f>
+        <v>1.4119999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2.56</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="6">
+        <v>4.58</v>
+      </c>
+      <c r="D32" s="2">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.57250000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6">
+        <v>7.93</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2">
+        <v>15</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.99124999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="6">
+        <v>6.56</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0666666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="7">
+        <f>SUM(F30:F35)</f>
+        <v>8.4224166666666669</v>
+      </c>
+      <c r="G36" s="7">
+        <f>F36/6</f>
+        <v>1.4037361111111111</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/src_controller/documentation_images/FigureMovementTimes.xlsx
+++ b/src/src_controller/documentation_images/FigureMovementTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodevmo\Desktop\AtomicChessOS\src\src_controller\documentation_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956CF65-5968-485D-9C9D-9965F8C2F8AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE58D0-B4A2-420C-A7DA-405ED54D4CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1170" windowWidth="24930" windowHeight="16020" xr2:uid="{6E9E09F0-F1EE-4823-8639-E287A0BC0C5F}"/>
+    <workbookView xWindow="8400" yWindow="1170" windowWidth="33285" windowHeight="17805" xr2:uid="{6E9E09F0-F1EE-4823-8639-E287A0BC0C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>D5</t>
   </si>
@@ -83,12 +83,30 @@
   <si>
     <t>MOVE TIME SECONDS_IMPLEMENTATION_B</t>
   </si>
+  <si>
+    <t>AVERAGE_GAME_MOVE_COUNT</t>
+  </si>
+  <si>
+    <t>chessgames.com DATABASE</t>
+  </si>
+  <si>
+    <t>CHESS_MOVES_PER_SITE</t>
+  </si>
+  <si>
+    <t>+ OVERHEAD (MOVE PARK POSITION)</t>
+  </si>
+  <si>
+    <t>SECONDS_PER_GAME</t>
+  </si>
+  <si>
+    <t>SPEEDUP_COMPARED_WITH_V1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +144,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +168,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -160,7 +198,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -173,6 +211,11 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Akzent1" xfId="2" builtinId="29"/>
@@ -227,8 +270,14 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>FigureMoveSpeed_by_Distance</a:t>
+              <a:t>MOVE_ALGORITHM V1</a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -236,8 +285,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18502253794362661"/>
-          <c:y val="5.4421760933917415E-2"/>
+          <c:x val="0.3643263358113637"/>
+          <c:y val="6.1784150833142273E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -275,8 +324,785 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-E80F-4B66-A31D-7883021B0D10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7,06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2,56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4,58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7,93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6,56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6,20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-E80F-4B66-A31D-7883021B0D10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-E80F-4B66-A31D-7883021B0D10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7,06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2,56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4,58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7,93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6,56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6,20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-E80F-4B66-A31D-7883021B0D10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>12.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-E80F-4B66-A31D-7883021B0D10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$30:$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7,06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2,56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4,58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7,93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6,56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6,20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-E80F-4B66-A31D-7883021B0D10}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="6"/>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
@@ -408,35 +1234,35 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-153D-4EE3-872A-96CAB0E1B8AD}"/>
+              <c16:uniqueId val="{0000000C-E80F-4B66-A31D-7883021B0D10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$C$30:$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7.06</c:v>
+                  <c:v>7,06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.56</c:v>
+                  <c:v>2,56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.58</c:v>
+                  <c:v>4,58</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.93</c:v>
+                  <c:v>7,93</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.56</c:v>
+                  <c:v>6,56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.20</c:v>
+                  <c:v>6,20</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -527,7 +1353,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F6B1-4EF6-84E1-3A9C742D25BC}"/>
+              <c16:uniqueId val="{0000000E-E80F-4B66-A31D-7883021B0D10}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -601,6 +1427,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37283657976538215"/>
+              <c:y val="0.92275097093893321"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -698,33 +1532,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                      <a:alpha val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                      <a:alpha val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -822,14 +1629,8 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -846,6 +1647,543 @@
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>MOVE_ALGORITHM V2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30349814738288283"/>
+          <c:y val="2.2229469975920992E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.5231551941894731E-2"/>
+          <c:y val="0.15190166989412121"/>
+          <c:w val="0.88589503817939352"/>
+          <c:h val="0.77707113668538097"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Tabelle1!$E$30:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$30:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-104D-4CE6-965E-CA73B0D65DFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="877047344"/>
+        <c:axId val="877048176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="877047344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>COUNT_OF_TRAVELED_FIELDS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877048176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="877048176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>TIME_NEEDED_IN_SECONDS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="877047344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -907,6 +2245,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
   <cs:axisTitle>
@@ -1456,20 +2834,516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>244848</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>214312</xdr:rowOff>
+      <xdr:rowOff>113459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1400736</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1489,6 +3363,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>577102</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>124384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>638734</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78320B36-BE3E-420D-9CD7-CBE77321C1A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1794,10 +3704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938252AC-D312-461B-B63A-878C42459ED2}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1811,7 +3721,7 @@
     <col min="7" max="16384" width="13.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1830,8 +3740,11 @@
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1851,8 +3764,14 @@
         <f t="shared" ref="F2:F7" si="0">C2/D2</f>
         <v>2.4539999999999997</v>
       </c>
+      <c r="J2" s="10">
+        <v>79</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +3792,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1893,8 +3812,15 @@
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
+      <c r="J4" s="2">
+        <f>J2*0.66</f>
+        <v>52.14</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1914,8 +3840,11 @@
         <f t="shared" si="0"/>
         <v>1.7987500000000001</v>
       </c>
+      <c r="K5" s="11" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1936,7 +3865,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1957,17 +3886,25 @@
         <v>3.8833333333333333</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="7">
+    <row r="8" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="12">
         <f>SUM(F2:F7)</f>
         <v>18.106083333333334</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="12">
         <f>F8/6</f>
         <v>3.0176805555555557</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="13" t="s">
         <v>13</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12">
+        <f>G8*J4</f>
+        <v>157.34186416666668</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2053,7 +3990,7 @@
         <v>0.57250000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -2074,7 +4011,7 @@
         <v>0.99124999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +4032,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -2116,17 +4053,35 @@
         <v>2.0666666666666669</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="7">
+    <row r="36" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="12">
         <f>SUM(F30:F35)</f>
         <v>8.4224166666666669</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="12">
         <f>F36/6</f>
         <v>1.4037361111111111</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="13" t="s">
         <v>13</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12">
+        <f>G36*J2</f>
+        <v>110.89515277777778</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="14">
+        <f>G8/G36</f>
+        <v>2.1497491812524121</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/src_controller/documentation_images/FigureMovementTimes.xlsx
+++ b/src/src_controller/documentation_images/FigureMovementTimes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prodevmo\Desktop\AtomicChessOS\src\src_controller\documentation_images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE58D0-B4A2-420C-A7DA-405ED54D4CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B1445E-1CFE-496F-A2A8-A36F4A9B1D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1170" windowWidth="33285" windowHeight="17805" xr2:uid="{6E9E09F0-F1EE-4823-8639-E287A0BC0C5F}"/>
+    <workbookView xWindow="8400" yWindow="1170" windowWidth="23475" windowHeight="16890" xr2:uid="{6E9E09F0-F1EE-4823-8639-E287A0BC0C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -3370,16 +3370,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>577102</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1439955</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>124384</xdr:rowOff>
+      <xdr:rowOff>135590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>638734</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>739587</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3707,7 +3707,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5703125" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
